--- a/public documents/Schedule.xlsx
+++ b/public documents/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KubSU\9-semester\public documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D632E534-254A-4078-AF12-686A9A5E7A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684FDCE-EE9D-4DB7-B5E9-1A3EC1B63F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,12 +94,6 @@
     <t>Дискретно программирование</t>
   </si>
   <si>
-    <t>16:40-18:11</t>
-  </si>
-  <si>
-    <t>18:20-19:51</t>
-  </si>
-  <si>
     <t>8:00-9:20</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
   </si>
   <si>
     <t>Расписание 209. Осенний семестр</t>
+  </si>
+  <si>
+    <t>18:40-20:00</t>
+  </si>
+  <si>
+    <t>20:10-21:30</t>
   </si>
 </sst>
 </file>
@@ -815,10 +815,72 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,70 +907,76 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,100 +985,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,47 +1297,47 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="67" customWidth="1"/>
-    <col min="5" max="5" width="28" style="67" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" style="67" customWidth="1"/>
-    <col min="7" max="7" width="32.90625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="38.6328125" style="67" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="67"/>
+    <col min="1" max="1" width="4.26953125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="28" style="16" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="32.90625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="38.6328125" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1358,213 +1358,192 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61">
+      <c r="A4" s="48">
         <v>1</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>2</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>3</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="78"/>
-    </row>
-    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="15" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="54" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63">
-        <v>2</v>
-      </c>
-      <c r="B6" s="76" t="s">
+    <row r="9" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63">
-        <v>3</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="70" t="s">
+      <c r="C10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>8</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="70"/>
-    </row>
-    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="80" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
-    </row>
-    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63">
-        <v>8</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>9</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63">
-        <v>9</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="68"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E6:E7"/>
@@ -1579,11 +1558,32 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,24 +1611,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1652,160 +1652,166 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32">
+      <c r="A4" s="76">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="81" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33">
+      <c r="A6" s="57">
         <v>2</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="72" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33">
+      <c r="A8" s="57">
         <v>3</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33">
+      <c r="A10" s="57">
         <v>4</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="39" t="s">
+      <c r="E10" s="65"/>
+      <c r="F10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="31"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33">
+      <c r="A12" s="57">
         <v>5</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="30"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="52"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -1819,19 +1825,13 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public documents/Schedule.xlsx
+++ b/public documents/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KubSU\9-semester\public documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KUBSU\9-semester\public documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684FDCE-EE9D-4DB7-B5E9-1A3EC1B63F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48EAB85-7440-4C8D-B328-171690B95C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="33.1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,6 +823,90 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,97 +928,69 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -942,9 +998,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,63 +1007,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,47 +1300,47 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="16" customWidth="1"/>
     <col min="5" max="5" width="28" style="16" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="32.90625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="38.6328125" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="16"/>
+    <col min="6" max="6" width="26.44140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1357,193 +1360,209 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
+    <row r="4" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+    <row r="7" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <v>3</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="54" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="54"/>
-    </row>
-    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23" t="s">
+    <row r="9" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="44" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="34"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <v>9</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="44" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E6:E7"/>
@@ -1558,32 +1577,16 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1599,38 +1602,38 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1651,154 +1654,174 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="57">
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="63" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="61"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57">
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58">
         <v>2</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="68" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="64" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="57"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="73"/>
+    <row r="7" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="71"/>
-      <c r="G7" s="68"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="57">
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58">
         <v>3</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="68" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="68"/>
-    </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="57">
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58">
         <v>4</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="64" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="61" t="s">
+      <c r="E10" s="74"/>
+      <c r="F10" s="64" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
+    <row r="11" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="71"/>
       <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="68"/>
-    </row>
-    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="57">
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58">
         <v>5</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="61" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="58"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="56"/>
+    <row r="13" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="78"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:A5"/>
@@ -1812,26 +1835,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public documents/Schedule.xlsx
+++ b/public documents/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KubSU\9-semester\public documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684FDCE-EE9D-4DB7-B5E9-1A3EC1B63F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C866A85C-F145-431C-956C-157614353060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,11 +816,94 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,97 +927,69 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -942,9 +997,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,63 +1006,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,13 +1299,13 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="16" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" style="16" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" style="16" customWidth="1"/>
     <col min="5" max="5" width="28" style="16" customWidth="1"/>
@@ -1314,30 +1316,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1358,192 +1360,208 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="18" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="54" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="54"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="22"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="43" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="34"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="19">
         <v>9</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="43" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E6:E7"/>
@@ -1558,32 +1576,16 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,24 +1613,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1652,153 +1654,173 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="62" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="68"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57">
         <v>2</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="67" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="73"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="68"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57">
         <v>3</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="67" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="55"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="75"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="57">
         <v>4</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="63" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="61" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="55"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="68"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="57">
         <v>5</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="61" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="55"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="58"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="56"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:A5"/>
@@ -1812,26 +1834,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
